--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1809,12 +1809,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -2179,7 +2173,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -13187,7 +13181,7 @@
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13831,7 +13825,7 @@
         <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>82</v>
@@ -13877,13 +13871,11 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>577</v>
+        <v>421</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13936,10 +13928,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14023,7 +14015,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14058,10 +14050,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14087,10 +14079,10 @@
         <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>486</v>
@@ -14145,7 +14137,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1846,7 +1846,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger}
+    <t xml:space="preserve">value:$this.valueInteger.value}
 </t>
   </si>
   <si>
@@ -2771,7 +2771,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.29296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1846,7 +1846,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger.value}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -2771,7 +2771,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9196" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9199" uniqueCount="776">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1846,11 +1846,11 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valuecodeableConcept.code}
+    <t xml:space="preserve">value:$this.code}
 </t>
   </si>
   <si>
-    <t>Slice basiert auf component.code.coding.code #value</t>
+    <t>Slice basiert auf $this.code</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1899,10 +1899,6 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-integer</t>
-  </si>
-  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1989,8 +1985,7 @@
     <t>Observation.component:male.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.code}
-</t>
+    <t>Slice basiert auf $this.system und $this.code</t>
   </si>
   <si>
     <t>Observation.component:male.code.coding:Male_SNOMED</t>
@@ -2775,7 +2770,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="37.3046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -16596,13 +16591,13 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>82</v>
@@ -16684,7 +16679,7 @@
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -17697,16 +17692,16 @@
         <v>93</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>436</v>
@@ -17753,7 +17748,7 @@
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>604</v>
@@ -17774,7 +17769,7 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>440</v>
@@ -17791,7 +17786,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>604</v>
@@ -17822,13 +17817,13 @@
         <v>198</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>436</v>
@@ -17860,7 +17855,7 @@
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
@@ -17896,7 +17891,7 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>440</v>
@@ -17913,10 +17908,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17942,13 +17937,13 @@
         <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>449</v>
@@ -17980,7 +17975,7 @@
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17998,7 +17993,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18033,10 +18028,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18120,7 +18115,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18155,10 +18150,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18184,10 +18179,10 @@
         <v>83</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>516</v>
@@ -18242,7 +18237,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18277,13 +18272,13 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>82</v>
@@ -18401,7 +18396,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>592</v>
@@ -18519,7 +18514,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>593</v>
@@ -18639,7 +18634,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>594</v>
@@ -18761,14 +18756,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>595</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18790,13 +18785,13 @@
         <v>198</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>354</v>
@@ -18883,7 +18878,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>600</v>
@@ -19001,7 +18996,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>601</v>
@@ -19121,7 +19116,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>602</v>
@@ -19196,9 +19191,11 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AC136" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
       </c>
@@ -19241,13 +19238,13 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>82</v>
@@ -19365,10 +19362,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19483,10 +19480,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19603,10 +19600,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19725,10 +19722,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19845,10 +19842,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19890,7 +19887,7 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>82</v>
@@ -19967,10 +19964,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20089,10 +20086,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20211,13 +20208,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20335,10 +20332,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20453,10 +20450,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20573,10 +20570,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20695,10 +20692,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20815,10 +20812,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20860,7 +20857,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>82</v>
@@ -20937,10 +20934,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21059,10 +21056,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21181,7 +21178,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>603</v>
@@ -21303,7 +21300,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>604</v>
@@ -21329,16 +21326,16 @@
         <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>436</v>
@@ -21385,7 +21382,7 @@
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>604</v>
@@ -21406,7 +21403,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>440</v>
@@ -21423,13 +21420,13 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>82</v>
@@ -21451,16 +21448,16 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M155" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>436</v>
@@ -21530,7 +21527,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>440</v>
@@ -21547,10 +21544,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B156" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21665,10 +21662,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21785,10 +21782,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B158" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21811,13 +21808,13 @@
         <v>82</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21835,40 +21832,40 @@
         <v>82</v>
       </c>
       <c r="U158" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="V158" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="V158" t="s" s="2">
+      <c r="W158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF158" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21903,7 +21900,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>604</v>
@@ -21934,13 +21931,13 @@
         <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>436</v>
@@ -21972,7 +21969,7 @@
       </c>
       <c r="Y159" s="2"/>
       <c r="Z159" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -22008,7 +22005,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>440</v>
@@ -22025,10 +22022,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22054,13 +22051,13 @@
         <v>198</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>449</v>
@@ -22092,7 +22089,7 @@
       </c>
       <c r="Y160" s="2"/>
       <c r="Z160" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22110,7 +22107,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22145,10 +22142,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22232,7 +22229,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22267,10 +22264,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22296,10 +22293,10 @@
         <v>83</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N162" t="s" s="2">
         <v>516</v>
@@ -22354,7 +22351,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22389,13 +22386,13 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>82</v>
@@ -22513,7 +22510,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>592</v>
@@ -22631,7 +22628,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>593</v>
@@ -22751,7 +22748,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>594</v>
@@ -22873,14 +22870,14 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>595</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
@@ -22902,13 +22899,13 @@
         <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M167" t="s" s="2">
-        <v>689</v>
-      </c>
       <c r="N167" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>354</v>
@@ -22995,7 +22992,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>600</v>
@@ -23113,7 +23110,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>601</v>
@@ -23233,7 +23230,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>602</v>
@@ -23308,9 +23305,11 @@
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AC170" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="AD170" t="s" s="2">
         <v>82</v>
       </c>
@@ -23353,13 +23352,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23477,10 +23476,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23595,10 +23594,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23715,10 +23714,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23837,10 +23836,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23957,10 +23956,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24002,7 +24001,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -24079,10 +24078,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24201,10 +24200,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24323,13 +24322,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24447,10 +24446,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24565,10 +24564,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24685,10 +24684,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24807,10 +24806,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24927,10 +24926,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24972,7 +24971,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>82</v>
@@ -25049,10 +25048,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25171,10 +25170,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25293,7 +25292,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>603</v>
@@ -25415,7 +25414,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>604</v>
@@ -25441,16 +25440,16 @@
         <v>93</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>436</v>
@@ -25497,7 +25496,7 @@
         <v>82</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>604</v>
@@ -25518,7 +25517,7 @@
         <v>82</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>440</v>
@@ -25535,13 +25534,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>82</v>
@@ -25563,16 +25562,16 @@
         <v>93</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>436</v>
@@ -25642,7 +25641,7 @@
         <v>82</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>440</v>
@@ -25659,10 +25658,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25777,10 +25776,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25897,10 +25896,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25923,13 +25922,13 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -25938,7 +25937,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>82</v>
@@ -25947,40 +25946,40 @@
         <v>82</v>
       </c>
       <c r="U192" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="V192" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="V192" t="s" s="2">
+      <c r="W192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26015,7 +26014,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>604</v>
@@ -26046,13 +26045,13 @@
         <v>198</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M193" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>436</v>
@@ -26084,7 +26083,7 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>82</v>
@@ -26120,7 +26119,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>440</v>
@@ -26137,10 +26136,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26166,13 +26165,13 @@
         <v>198</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>449</v>
@@ -26204,7 +26203,7 @@
       </c>
       <c r="Y194" s="2"/>
       <c r="Z194" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>82</v>
@@ -26222,7 +26221,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26257,10 +26256,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26344,7 +26343,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26379,10 +26378,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26408,10 +26407,10 @@
         <v>83</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>516</v>
@@ -26466,7 +26465,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -26501,13 +26500,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>82</v>
@@ -26625,7 +26624,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>592</v>
@@ -26743,7 +26742,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>593</v>
@@ -26863,7 +26862,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>594</v>
@@ -26985,14 +26984,14 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>595</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27014,13 +27013,13 @@
         <v>198</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M201" t="s" s="2">
-        <v>732</v>
-      </c>
       <c r="N201" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>354</v>
@@ -27107,7 +27106,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>600</v>
@@ -27225,7 +27224,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>601</v>
@@ -27345,7 +27344,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>602</v>
@@ -27420,9 +27419,11 @@
         <v>82</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AC204" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="AD204" t="s" s="2">
         <v>82</v>
       </c>
@@ -27465,13 +27466,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>82</v>
@@ -27589,10 +27590,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27707,10 +27708,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27827,10 +27828,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27949,10 +27950,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28069,10 +28070,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28114,7 +28115,7 @@
       </c>
       <c r="Q210" s="2"/>
       <c r="R210" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="S210" t="s" s="2">
         <v>82</v>
@@ -28191,10 +28192,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28313,10 +28314,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28435,13 +28436,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>82</v>
@@ -28559,10 +28560,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28677,10 +28678,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28797,10 +28798,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28919,10 +28920,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29039,10 +29040,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29084,7 +29085,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>82</v>
@@ -29161,10 +29162,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29283,10 +29284,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29405,13 +29406,13 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>82</v>
@@ -29529,10 +29530,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29647,10 +29648,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29767,10 +29768,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29889,10 +29890,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30009,10 +30010,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30054,7 +30055,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>82</v>
@@ -30131,10 +30132,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30253,10 +30254,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30375,7 +30376,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>603</v>
@@ -30497,7 +30498,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>604</v>
@@ -30523,16 +30524,16 @@
         <v>93</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>436</v>
@@ -30579,7 +30580,7 @@
         <v>82</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>604</v>
@@ -30600,7 +30601,7 @@
         <v>82</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>440</v>
@@ -30617,13 +30618,13 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>82</v>
@@ -30645,16 +30646,16 @@
         <v>93</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>436</v>
@@ -30724,7 +30725,7 @@
         <v>82</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>440</v>
@@ -30741,10 +30742,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30859,10 +30860,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30979,10 +30980,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31005,13 +31006,13 @@
         <v>82</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -31020,7 +31021,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>82</v>
@@ -31029,40 +31030,40 @@
         <v>82</v>
       </c>
       <c r="U234" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="V234" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="V234" t="s" s="2">
+      <c r="W234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF234" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
@@ -31097,7 +31098,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>604</v>
@@ -31128,13 +31129,13 @@
         <v>198</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M235" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>436</v>
@@ -31166,7 +31167,7 @@
       </c>
       <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>82</v>
@@ -31202,7 +31203,7 @@
         <v>82</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>440</v>
@@ -31219,10 +31220,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31248,13 +31249,13 @@
         <v>198</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>449</v>
@@ -31286,7 +31287,7 @@
       </c>
       <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>82</v>
@@ -31304,7 +31305,7 @@
         <v>82</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
@@ -31339,10 +31340,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31426,7 +31427,7 @@
         <v>82</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>80</v>
@@ -31461,10 +31462,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31490,10 +31491,10 @@
         <v>83</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M238" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N238" t="s" s="2">
         <v>516</v>
@@ -31548,7 +31549,7 @@
         <v>82</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-rv-administrative-gender.xlsx
+++ b/output/StructureDefinition-rv-administrative-gender.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9199" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9199" uniqueCount="777">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1846,143 +1846,147 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Slice basiert auf code</t>
+  </si>
+  <si>
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
+  </si>
+  <si>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:male</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Observation.component:male.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code</t>
+  </si>
+  <si>
+    <t>Masculine
+Männlich</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Male gender</t>
+  </si>
+  <si>
+    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:$this.code}
 </t>
-  </si>
-  <si>
-    <t>Slice basiert auf $this.code</t>
-  </si>
-  <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:male</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Observation.component:male.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code</t>
-  </si>
-  <si>
-    <t>Masculine
-Männlich</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Male gender</t>
-  </si>
-  <si>
-    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding</t>
   </si>
   <si>
     <t>Slice basiert auf $this.system und $this.code</t>
@@ -19191,10 +19195,10 @@
         <v>82</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="AC136" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD136" t="s" s="2">
         <v>82</v>
@@ -19238,13 +19242,13 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>82</v>
@@ -19362,10 +19366,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19480,10 +19484,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19600,10 +19604,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19722,10 +19726,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19842,10 +19846,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19887,7 +19891,7 @@
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>82</v>
@@ -19964,10 +19968,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20086,10 +20090,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20208,13 +20212,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20332,10 +20336,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20450,10 +20454,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20570,10 +20574,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20692,10 +20696,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20812,10 +20816,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20857,7 +20861,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>82</v>
@@ -20934,10 +20938,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21056,10 +21060,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21178,7 +21182,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>603</v>
@@ -21300,7 +21304,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>604</v>
@@ -21420,13 +21424,13 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>82</v>
@@ -21448,7 +21452,7 @@
         <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>605</v>
@@ -21544,10 +21548,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21662,10 +21666,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21782,10 +21786,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21808,13 +21812,13 @@
         <v>82</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21832,10 +21836,10 @@
         <v>82</v>
       </c>
       <c r="U158" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="V158" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="W158" t="s" s="2">
         <v>82</v>
@@ -21865,7 +21869,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21900,7 +21904,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>604</v>
@@ -22022,7 +22026,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>611</v>
@@ -22142,7 +22146,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>616</v>
@@ -22264,7 +22268,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>617</v>
@@ -22386,13 +22390,13 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>82</v>
@@ -22510,7 +22514,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>592</v>
@@ -22628,7 +22632,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>593</v>
@@ -22748,7 +22752,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>594</v>
@@ -22870,14 +22874,14 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>595</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
@@ -22899,10 +22903,10 @@
         <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>629</v>
@@ -22992,7 +22996,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>600</v>
@@ -23110,7 +23114,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>601</v>
@@ -23230,7 +23234,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>602</v>
@@ -23305,10 +23309,10 @@
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="AC170" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD170" t="s" s="2">
         <v>82</v>
@@ -23352,13 +23356,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23476,10 +23480,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23594,10 +23598,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23714,10 +23718,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23836,10 +23840,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23956,10 +23960,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24001,7 +24005,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -24078,10 +24082,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24200,10 +24204,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24322,13 +24326,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24446,10 +24450,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24564,10 +24568,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24684,10 +24688,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24806,10 +24810,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24926,10 +24930,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24971,7 +24975,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>82</v>
@@ -25048,10 +25052,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25170,10 +25174,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25292,7 +25296,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>603</v>
@@ -25414,7 +25418,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>604</v>
@@ -25534,13 +25538,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>82</v>
@@ -25562,7 +25566,7 @@
         <v>93</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>605</v>
@@ -25658,10 +25662,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25776,10 +25780,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25896,10 +25900,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25922,13 +25926,13 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -25937,7 +25941,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>82</v>
@@ -25946,10 +25950,10 @@
         <v>82</v>
       </c>
       <c r="U192" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="V192" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="W192" t="s" s="2">
         <v>82</v>
@@ -25979,7 +25983,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26014,7 +26018,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>604</v>
@@ -26136,7 +26140,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>611</v>
@@ -26256,7 +26260,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>616</v>
@@ -26378,7 +26382,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>617</v>
@@ -26500,13 +26504,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>82</v>
@@ -26624,7 +26628,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>592</v>
@@ -26742,7 +26746,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>593</v>
@@ -26862,7 +26866,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>594</v>
@@ -26984,14 +26988,14 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>595</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27013,10 +27017,10 @@
         <v>198</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N201" t="s" s="2">
         <v>629</v>
@@ -27106,7 +27110,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>600</v>
@@ -27224,7 +27228,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>601</v>
@@ -27344,7 +27348,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>602</v>
@@ -27419,10 +27423,10 @@
         <v>82</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD204" t="s" s="2">
         <v>82</v>
@@ -27466,13 +27470,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>82</v>
@@ -27590,10 +27594,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27708,10 +27712,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27828,10 +27832,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27950,10 +27954,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28070,10 +28074,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28115,7 +28119,7 @@
       </c>
       <c r="Q210" s="2"/>
       <c r="R210" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="S210" t="s" s="2">
         <v>82</v>
@@ -28192,10 +28196,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28314,10 +28318,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28436,13 +28440,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>82</v>
@@ -28560,10 +28564,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28678,10 +28682,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28798,10 +28802,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28920,10 +28924,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29040,10 +29044,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29085,7 +29089,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>82</v>
@@ -29162,10 +29166,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29284,10 +29288,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29406,13 +29410,13 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>602</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>82</v>
@@ -29530,10 +29534,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29648,10 +29652,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29768,10 +29772,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29890,10 +29894,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30010,10 +30014,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30055,7 +30059,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>82</v>
@@ -30132,10 +30136,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30254,10 +30258,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30376,7 +30380,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>603</v>
@@ -30498,7 +30502,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>604</v>
@@ -30618,13 +30622,13 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>604</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>82</v>
@@ -30646,7 +30650,7 @@
         <v>93</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L231" t="s" s="2">
         <v>605</v>
@@ -30742,10 +30746,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30860,10 +30864,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30980,10 +30984,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31006,13 +31010,13 @@
         <v>82</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -31021,7 +31025,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>82</v>
@@ -31030,10 +31034,10 @@
         <v>82</v>
       </c>
       <c r="U234" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="V234" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="W234" t="s" s="2">
         <v>82</v>
@@ -31063,7 +31067,7 @@
         <v>82</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
@@ -31098,7 +31102,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>604</v>
@@ -31220,7 +31224,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>611</v>
@@ -31340,7 +31344,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>616</v>
@@ -31462,7 +31466,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>617</v>
